--- a/testFiles/basicTest.xlsx
+++ b/testFiles/basicTest.xlsx
@@ -1,54 +1,124 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\Documents\ExcelReading\testFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ACEF2C-21E3-4CC9-8E38-4B346B928259}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="15460" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="report" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="report2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="report21" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="report" sheetId="1" r:id="rId1"/>
+    <sheet name="report2" sheetId="2" r:id="rId2"/>
+    <sheet name="report21" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>name change</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>BBBBapple</t>
+  </si>
+  <si>
+    <t>BBBBbanana</t>
+  </si>
+  <si>
+    <t>BBBBcitron</t>
+  </si>
+  <si>
+    <t>BBBBdate</t>
+  </si>
+  <si>
+    <t>BBBBentawak</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>BBBBBBBapple</t>
+  </si>
+  <si>
+    <t>BBBBBBBbanana</t>
+  </si>
+  <si>
+    <t>BBBBBBBcitron</t>
+  </si>
+  <si>
+    <t>BBBBBBBdate</t>
+  </si>
+  <si>
+    <t>BBBBBBBentawak</t>
+  </si>
+  <si>
+    <t>BBBBBapple</t>
+  </si>
+  <si>
+    <t>BBBBBbanana</t>
+  </si>
+  <si>
+    <t>BBBBBcitron</t>
+  </si>
+  <si>
+    <t>BBBBBdate</t>
+  </si>
+  <si>
+    <t>BBBBBentawak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -82,19 +152,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -382,98 +461,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>serial</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>name change</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>BBBBapple</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="n">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>BBBBbanana</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>BBBBcitron</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="n">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>BBBBdate</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>BBBBentawak</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
         <v>40</v>
       </c>
     </row>
@@ -484,98 +570,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>serial</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BBBBBBBapple</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BBBBBBBbanana</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
         <v>20</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>BBBBBBBcitron</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
         <v>30</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>BBBBBBBdate</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
         <v>50</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>BBBBBBBentawak</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
         <v>40</v>
       </c>
     </row>
@@ -585,98 +649,76 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>serial</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BBBBBapple</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BBBBBbanana</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
         <v>20</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>BBBBBcitron</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
         <v>30</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>BBBBBdate</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
         <v>50</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>BBBBBentawak</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
         <v>40</v>
       </c>
     </row>
